--- a/biology/Botanique/Begonia_sanguinea/Begonia_sanguinea.xlsx
+++ b/biology/Botanique/Begonia_sanguinea/Begonia_sanguinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia sanguinea est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire du Brésil. L'espèce fait partie de la section Pritzelia. Elle a été décrite en 1820 par Giuseppe Raddi (1770-1829). L'épithète spécifique sanguinea signifie « rouge sang »[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia sanguinea est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire du Brésil. L'espèce fait partie de la section Pritzelia. Elle a été décrite en 1820 par Giuseppe Raddi (1770-1829). L'épithète spécifique sanguinea signifie « rouge sang ».
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia sanguinea est une herbe vivace ou un semi-arbuste à feuilles persistantes. Hauteur de la plante est de 60-90 cm; tige rouge, très ramifiée et souvent ligneuse à la base. La plante entière est lisse et glabre. Feuilles alternes, cordiformes tordues et ovales, de 10-17,5 cm de long et 5-10 cm de large, vertes dessus et rouges dessous. Quelques fleurs blanches forment des cymes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia sanguinea est une herbe vivace ou un semi-arbuste à feuilles persistantes. Hauteur de la plante est de 60-90 cm; tige rouge, très ramifiée et souvent ligneuse à la base. La plante entière est lisse et glabre. Feuilles alternes, cordiformes tordues et ovales, de 10-17,5 cm de long et 5-10 cm de large, vertes dessus et rouges dessous. Quelques fleurs blanches forment des cymes.
 			Planche botanique de 1836
 			Détail de la floraison, plante cultivée
 			Fleur mâle à deux pétales (ou quatre dont deux menus)
@@ -547,9 +561,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Brésil[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Brésil.
 </t>
         </is>
       </c>
